--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Ntf3-Ntrk1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,7 +76,13 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>sCs</t>
   </si>
   <si>
     <t>Ntf3</t>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,61 +519,371 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>20</v>
-      </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>9.97082280736802</v>
+        <v>7.310333666666668</v>
       </c>
       <c r="H2">
-        <v>9.97082280736802</v>
+        <v>21.931001</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.357182641950452</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.357182641950452</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.0998012167155754</v>
+        <v>0.1211523333333333</v>
       </c>
       <c r="N2">
-        <v>0.0998012167155754</v>
+        <v>0.363457</v>
       </c>
       <c r="O2">
+        <v>0.6524744903454663</v>
+      </c>
+      <c r="P2">
+        <v>0.6524744903454663</v>
+      </c>
+      <c r="Q2">
+        <v>0.8856639811618892</v>
+      </c>
+      <c r="R2">
+        <v>7.970975830457001</v>
+      </c>
+      <c r="S2">
+        <v>0.2330525622668684</v>
+      </c>
+      <c r="T2">
+        <v>0.2330525622668684</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G3">
+        <v>7.310333666666668</v>
+      </c>
+      <c r="H3">
+        <v>21.931001</v>
+      </c>
+      <c r="I3">
+        <v>0.357182641950452</v>
+      </c>
+      <c r="J3">
+        <v>0.357182641950452</v>
+      </c>
+      <c r="K3">
         <v>1</v>
       </c>
-      <c r="P2">
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.064529</v>
+      </c>
+      <c r="N3">
+        <v>0.193587</v>
+      </c>
+      <c r="O3">
+        <v>0.3475255096545335</v>
+      </c>
+      <c r="P3">
+        <v>0.3475255096545335</v>
+      </c>
+      <c r="Q3">
+        <v>0.4717285211763334</v>
+      </c>
+      <c r="R3">
+        <v>4.245556690587001</v>
+      </c>
+      <c r="S3">
+        <v>0.1241300796835836</v>
+      </c>
+      <c r="T3">
+        <v>0.1241300796835836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="Q2">
-        <v>0.9951002478307377</v>
-      </c>
-      <c r="R2">
-        <v>0.9951002478307377</v>
-      </c>
-      <c r="S2">
+      <c r="G4">
+        <v>10.17625966666667</v>
+      </c>
+      <c r="H4">
+        <v>30.528779</v>
+      </c>
+      <c r="I4">
+        <v>0.4972116839874968</v>
+      </c>
+      <c r="J4">
+        <v>0.4972116839874969</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="T2">
+      <c r="M4">
+        <v>0.1211523333333333</v>
+      </c>
+      <c r="N4">
+        <v>0.363457</v>
+      </c>
+      <c r="O4">
+        <v>0.6524744903454663</v>
+      </c>
+      <c r="P4">
+        <v>0.6524744903454663</v>
+      </c>
+      <c r="Q4">
+        <v>1.232877603222556</v>
+      </c>
+      <c r="R4">
+        <v>11.095898429003</v>
+      </c>
+      <c r="S4">
+        <v>0.3244179401035531</v>
+      </c>
+      <c r="T4">
+        <v>0.3244179401035531</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>1</v>
+      </c>
+      <c r="G5">
+        <v>10.17625966666667</v>
+      </c>
+      <c r="H5">
+        <v>30.528779</v>
+      </c>
+      <c r="I5">
+        <v>0.4972116839874968</v>
+      </c>
+      <c r="J5">
+        <v>0.4972116839874969</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.064529</v>
+      </c>
+      <c r="N5">
+        <v>0.193587</v>
+      </c>
+      <c r="O5">
+        <v>0.3475255096545335</v>
+      </c>
+      <c r="P5">
+        <v>0.3475255096545335</v>
+      </c>
+      <c r="Q5">
+        <v>0.6566638600303334</v>
+      </c>
+      <c r="R5">
+        <v>5.909974740273</v>
+      </c>
+      <c r="S5">
+        <v>0.1727937438839437</v>
+      </c>
+      <c r="T5">
+        <v>0.1727937438839437</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>2.980061000000001</v>
+      </c>
+      <c r="H6">
+        <v>8.940183000000001</v>
+      </c>
+      <c r="I6">
+        <v>0.1456056740620512</v>
+      </c>
+      <c r="J6">
+        <v>0.1456056740620512</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.1211523333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.363457</v>
+      </c>
+      <c r="O6">
+        <v>0.6524744903454663</v>
+      </c>
+      <c r="P6">
+        <v>0.6524744903454663</v>
+      </c>
+      <c r="Q6">
+        <v>0.3610413436256668</v>
+      </c>
+      <c r="R6">
+        <v>3.249372092631001</v>
+      </c>
+      <c r="S6">
+        <v>0.09500398797504492</v>
+      </c>
+      <c r="T6">
+        <v>0.09500398797504492</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>2.980061000000001</v>
+      </c>
+      <c r="H7">
+        <v>8.940183000000001</v>
+      </c>
+      <c r="I7">
+        <v>0.1456056740620512</v>
+      </c>
+      <c r="J7">
+        <v>0.1456056740620512</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.064529</v>
+      </c>
+      <c r="N7">
+        <v>0.193587</v>
+      </c>
+      <c r="O7">
+        <v>0.3475255096545335</v>
+      </c>
+      <c r="P7">
+        <v>0.3475255096545335</v>
+      </c>
+      <c r="Q7">
+        <v>0.1923003562690001</v>
+      </c>
+      <c r="R7">
+        <v>1.730703206421</v>
+      </c>
+      <c r="S7">
+        <v>0.05060168608700623</v>
+      </c>
+      <c r="T7">
+        <v>0.05060168608700623</v>
       </c>
     </row>
   </sheetData>
